--- a/resources/experiment 2/metrics/MAPE/upto time/Neuropatía (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Neuropatía (UPTO).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9891198044393080</v>
+        <v>9891198044393078</v>
       </c>
       <c r="C2" t="n">
         <v>9891198044393078</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20337642142571.81</v>
+        <v>2593537460900.024</v>
       </c>
       <c r="C3" t="n">
-        <v>20337383049328.8</v>
+        <v>2499133910589.824</v>
       </c>
       <c r="D3" t="n">
-        <v>20337383049328.8</v>
+        <v>438183309651149.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57468433980241</v>
+        <v>2508509471790.415</v>
       </c>
       <c r="C4" t="n">
-        <v>57533677067250.11</v>
+        <v>2477383749676.61</v>
       </c>
       <c r="D4" t="n">
-        <v>57533677067250.11</v>
+        <v>151016259939687.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2264643203216898</v>
+        <v>312123613310573.9</v>
       </c>
       <c r="C5" t="n">
-        <v>2264643203216898</v>
+        <v>396139552004133.2</v>
       </c>
       <c r="D5" t="n">
-        <v>2264643203216898</v>
+        <v>3588734387100720</v>
       </c>
     </row>
   </sheetData>
